--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-59.xlsx
@@ -200,6 +200,9 @@
     <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
   </si>
   <si>
+    <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
+    <t>MEPAFURAN 100 MG 20 CAPS.</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -269,6 +275,9 @@
     <t>PARAMOL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
     <t>PIXEFRESH MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -299,6 +308,12 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>SULBIN 750MG VIAL</t>
   </si>
   <si>
@@ -311,6 +326,12 @@
     <t>TERBIN 250MG 14 TAB.</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -393,6 +414,9 @@
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -1991,17 +2015,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>69.5</v>
+        <v>56</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2017,17 +2041,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2043,17 +2067,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>58</v>
+        <v>86.5</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2069,13 +2093,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2095,17 +2119,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2121,17 +2145,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2139,7 +2163,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2147,17 +2171,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2173,13 +2197,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2199,13 +2223,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2225,17 +2249,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2251,17 +2275,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2269,7 +2293,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2277,17 +2301,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2295,7 +2319,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2303,13 +2327,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>24.960000000000001</v>
+        <v>108</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2329,17 +2353,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2355,17 +2379,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>33.840000000000003</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2381,17 +2405,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2407,17 +2431,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>4</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2425,7 +2449,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2433,17 +2457,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2451,7 +2475,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2459,17 +2483,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2477,7 +2501,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2485,17 +2509,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2511,17 +2535,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2529,7 +2553,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2543,7 +2567,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2555,7 +2579,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2569,7 +2593,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2581,7 +2605,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2589,17 +2613,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2621,7 +2645,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2641,13 +2665,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2667,13 +2691,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2693,13 +2717,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2719,17 +2743,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>134.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2751,7 +2775,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2771,13 +2795,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2797,17 +2821,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2815,7 +2839,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2829,11 +2853,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2841,7 +2865,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2849,17 +2873,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2867,7 +2891,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2875,17 +2899,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2893,7 +2917,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2901,17 +2925,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>74.689999999999998</v>
+        <v>83</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2919,7 +2943,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2927,17 +2951,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2945,7 +2969,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2953,17 +2977,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2971,7 +2995,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2979,17 +3003,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>24.960000000000001</v>
+        <v>23</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2997,7 +3021,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3005,17 +3029,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.33000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3023,7 +3047,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3031,17 +3055,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>69</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3049,7 +3073,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3057,17 +3081,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>102.59999999999999</v>
+        <v>128</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3075,7 +3099,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3083,17 +3107,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3101,7 +3125,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3109,13 +3133,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>40</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3127,7 +3151,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3135,17 +3159,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3153,7 +3177,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3161,17 +3185,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>78.400000000000006</v>
+        <v>69</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3179,7 +3203,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3187,13 +3211,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3213,17 +3237,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3239,17 +3263,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3257,7 +3281,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3265,17 +3289,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3283,7 +3307,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3291,17 +3315,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>10</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3309,7 +3333,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3317,13 +3341,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3343,17 +3367,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3375,7 +3399,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3395,17 +3419,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3427,11 +3451,11 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3447,13 +3471,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3465,7 +3489,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3473,51 +3497,207 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="26.25" customHeight="1">
-      <c r="K100" s="11">
-        <v>5623.9399999999996</v>
-      </c>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>132</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
         <v>133</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c t="s" r="F101" s="13">
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>72</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
         <v>134</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c t="s" r="I101" s="15">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>47</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>20</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
         <v>135</v>
       </c>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>59</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>17</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c r="N102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>136</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
+        <v>137</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>45</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c r="N103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>138</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
+        <v>139</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>35</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c r="N104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>140</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>45</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>30</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="K106" s="11">
+        <v>6096.9399999999996</v>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="12">
+        <v>141</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c t="s" r="F107" s="13">
+        <v>142</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c t="s" r="I107" s="15">
+        <v>143</v>
+      </c>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="317">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3813,10 +3993,28 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:N101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:N107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
